--- a/other/无盘.xlsx
+++ b/other/无盘.xlsx
@@ -913,7 +913,9 @@
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>17757959777</v>
+      </c>
       <c r="C5" s="29">
         <v>13306515225</v>
       </c>
